--- a/src/test/resources/persons_with_gaps.xlsx
+++ b/src/test/resources/persons_with_gaps.xlsx
@@ -566,6 +566,8 @@
         </is>
       </c>
     </row>
+    <row r="6" spans="1:7"/>
+    <row r="7" spans="1:7"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
